--- a/medicine/Enfance/Beast_Quest/Beast_Quest.xlsx
+++ b/medicine/Enfance/Beast_Quest/Beast_Quest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Beast Quest (titre original : Beast Quest) est une série de romans pour enfants de médiéval-fantastique britannique. La série est écrite par un collectif d'auteurs prenant le nom d'Adam Blade. Elle est éditée au Royaume-Uni par Orchard Books et en France par Hachette dans la collection Bibliothèque verte. Le premier roman est paru en 2007 au Royaume-Uni et traduit en 2008 en France.
@@ -513,9 +525,11 @@
           <t>Méthode d'écriture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection est produite par un studio d'auteurs appelé Working Partners Limited. L'équipe éditoriale définit le synopsis de chaque livre, puis contacte des auteurs et leur demande d'écrire un essai, typiquement les trois premiers chapitres du livre. Puis, l'équipe éditoriale sélectionne l'auteur qui est chargé d'écrire le livre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection est produite par un studio d'auteurs appelé Working Partners Limited. L'équipe éditoriale définit le synopsis de chaque livre, puis contacte des auteurs et leur demande d'écrire un essai, typiquement les trois premiers chapitres du livre. Puis, l'équipe éditoriale sélectionne l'auteur qui est chargé d'écrire le livre.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Dragon de feu (Ferno)
 Le Serpent de mer (Serpron)
@@ -579,10 +595,10 @@
 Le Maître des montagnes (Rokk)
 Le Maître des glaces (Koldo)
 Le Maître de la terre (Trema)
-Le Maître de la jungle (Amictus)[2]
+Le Maître de la jungle (Amictus)
 Le Roi Lézard (Komodo)
 Le Rat géant (Muro)
-La Chauve-souris (Fang)[3]
+La Chauve-souris (Fang)
 La Créature des marais (Marlik)
 L'Arbre maléfique (Terra)
 La Reine des guêpes (Vespick)
